--- a/data/data_second.xlsx
+++ b/data/data_second.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C56791-80B6-442D-973B-5A2F7AE999AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB86DADC-ED64-4BE2-BCBA-F7EB8665F26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2970" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -495,7 +495,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -586,6 +586,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1066,15 +1069,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20831BF8-B727-4360-9174-6C10D25AE996}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
@@ -1103,7 +1106,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -1122,7 +1125,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>28</v>
       </c>
@@ -1150,8 +1153,11 @@
       <c r="I3" s="15">
         <v>704.24</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>29</v>
       </c>
@@ -1179,8 +1185,11 @@
       <c r="I4" s="18">
         <v>520.49</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>30</v>
       </c>
@@ -1208,8 +1217,11 @@
       <c r="I5" s="18">
         <v>304.27999999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>31</v>
       </c>
@@ -1237,8 +1249,11 @@
       <c r="I6" s="18">
         <v>228.53</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>32</v>
       </c>
@@ -1266,8 +1281,11 @@
       <c r="I7" s="18">
         <v>512.80999999999995</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>33</v>
       </c>
@@ -1295,8 +1313,11 @@
       <c r="I8" s="18">
         <v>533.29</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>34</v>
       </c>
@@ -1324,8 +1345,11 @@
       <c r="I9" s="18">
         <v>425.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>35</v>
       </c>
@@ -1353,8 +1377,11 @@
       <c r="I10" s="18">
         <v>321.95</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>36</v>
       </c>
@@ -1382,8 +1409,11 @@
       <c r="I11" s="18">
         <v>937.21</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>37</v>
       </c>
@@ -1411,8 +1441,11 @@
       <c r="I12" s="18">
         <v>458.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>38</v>
       </c>
@@ -1440,8 +1473,11 @@
       <c r="I13" s="18">
         <v>520.95000000000005</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J13" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>39</v>
       </c>
@@ -1469,8 +1505,11 @@
       <c r="I14" s="18">
         <v>325.82</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>40</v>
       </c>
@@ -1498,8 +1537,11 @@
       <c r="I15" s="22">
         <v>523.83000000000004</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J15" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>41</v>
       </c>
@@ -1527,8 +1569,11 @@
       <c r="I16" s="15">
         <v>337.91</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>42</v>
       </c>
@@ -1556,8 +1601,11 @@
       <c r="I17" s="18">
         <v>372.01</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J17" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>43</v>
       </c>
@@ -1585,8 +1633,11 @@
       <c r="I18" s="18">
         <v>324.02999999999997</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>44</v>
       </c>
@@ -1614,8 +1665,11 @@
       <c r="I19" s="18">
         <v>260.74</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J19" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>45</v>
       </c>
@@ -1643,8 +1697,11 @@
       <c r="I20" s="18">
         <v>376.62</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J20" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>46</v>
       </c>
@@ -1672,8 +1729,11 @@
       <c r="I21" s="18">
         <v>594.45000000000005</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J21" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>47</v>
       </c>
@@ -1701,8 +1761,11 @@
       <c r="I22" s="18">
         <v>290.04000000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J22" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
         <v>48</v>
       </c>
@@ -1730,8 +1793,11 @@
       <c r="I23" s="18">
         <v>247.08</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J23" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="25" t="s">
         <v>49</v>
       </c>
@@ -1759,8 +1825,11 @@
       <c r="I24" s="18">
         <v>305.60000000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J24" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
         <v>50</v>
       </c>
@@ -1788,8 +1857,11 @@
       <c r="I25" s="18">
         <v>338.03</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J25" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="25" t="s">
         <v>51</v>
       </c>
@@ -1817,8 +1889,11 @@
       <c r="I26" s="18">
         <v>260.27</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J26" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
         <v>52</v>
       </c>
@@ -1846,8 +1921,11 @@
       <c r="I27" s="18">
         <v>150.41999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J27" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
         <v>53</v>
       </c>
@@ -1875,8 +1953,11 @@
       <c r="I28" s="18">
         <v>400.38</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J28" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
         <v>54</v>
       </c>
@@ -1904,8 +1985,11 @@
       <c r="I29" s="18">
         <v>400.68</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J29" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="25" t="s">
         <v>55</v>
       </c>
@@ -1933,8 +2017,11 @@
       <c r="I30" s="18">
         <v>301.39999999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J30" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="25" t="s">
         <v>56</v>
       </c>
@@ -1962,8 +2049,11 @@
       <c r="I31" s="18">
         <v>311.72000000000003</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J31" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="25" t="s">
         <v>57</v>
       </c>
@@ -1991,8 +2081,11 @@
       <c r="I32" s="18">
         <v>403.71</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J32" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="26" t="s">
         <v>58</v>
       </c>
@@ -2020,8 +2113,11 @@
       <c r="I33" s="22">
         <v>411.63</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="J33" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:B2"/>
@@ -2039,8 +2135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD41E54B-A2BA-421D-8D9F-A4BF6634687A}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
